--- a/storage/templates/foundation_lenta_tmp.xlsx
+++ b/storage/templates/foundation_lenta_tmp.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koss/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA2D8CB-0220-8543-86DB-2F3B516B56D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A221E8-4C03-9C43-A777-11CD45FD53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="g2sqcv6lsJRj0QusnbcJyHupKPfnXpqM7IHtdZ3tTeZntDa4fPD/MLC9A/Yi7GejHrsJ7ak55l0p+BpjoBOOYg==" workbookSaltValue="Gn83XfNFJSfc7WD4qYuhXA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23300" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="данные" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="185">
   <si>
     <t>Ед. изм.</t>
   </si>
@@ -619,70 +619,10 @@
     <t xml:space="preserve">Высота  цоколя </t>
   </si>
   <si>
-    <t>600х300</t>
-  </si>
-  <si>
-    <t>700х300</t>
-  </si>
-  <si>
-    <t>800х300</t>
-  </si>
-  <si>
-    <t>900х300</t>
-  </si>
-  <si>
-    <t>1000х300</t>
-  </si>
-  <si>
-    <t>600х400</t>
-  </si>
-  <si>
-    <t>700х400</t>
-  </si>
-  <si>
-    <t>800х400</t>
-  </si>
-  <si>
-    <t>600х500</t>
-  </si>
-  <si>
-    <t>700х500</t>
-  </si>
-  <si>
-    <t>800х500</t>
-  </si>
-  <si>
-    <t>900х500</t>
-  </si>
-  <si>
-    <t>1000х500</t>
-  </si>
-  <si>
-    <t>700х600</t>
-  </si>
-  <si>
-    <t>800х600</t>
-  </si>
-  <si>
-    <t>900х600</t>
-  </si>
-  <si>
-    <t>1000х600</t>
-  </si>
-  <si>
-    <t>900х400</t>
-  </si>
-  <si>
-    <t>1000х400</t>
-  </si>
-  <si>
     <t>Количество углов Г</t>
   </si>
   <si>
     <t xml:space="preserve">Подрядчик:  ______________ </t>
-  </si>
-  <si>
-    <t>Д-ПБ-97.07</t>
   </si>
 </sst>
 </file>
@@ -882,7 +822,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,24 +886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1935,21 +1857,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2040,18 +1947,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2112,10 +2007,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2125,10 +2016,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2137,11 +2040,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2167,20 +2073,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2191,12 +2109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2215,44 +2127,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2266,186 +2316,28 @@
     <xf numFmtId="4" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2751,11 +2643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:K26"/>
+  <sheetPr codeName="Worksheet____1"/>
+  <dimension ref="A2:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2763,49 +2655,43 @@
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="6" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="F2" s="216" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="32">
-      <c r="A3" s="222" t="s">
+    <row r="2" spans="1:12">
+      <c r="F2" s="207"/>
+    </row>
+    <row r="3" spans="1:12" ht="32">
+      <c r="A3" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="223"/>
+      <c r="B3" s="210"/>
       <c r="C3" s="49" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="49"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="221"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="208"/>
       <c r="B4" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="131">
-        <v>79.7</v>
-      </c>
+      <c r="D4" s="131"/>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="221"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="208"/>
       <c r="B5" s="48" t="s">
         <v>181</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="131">
-        <v>0.3</v>
-      </c>
+      <c r="D5" s="131"/>
       <c r="H5">
         <v>0.3</v>
       </c>
@@ -2819,38 +2705,34 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="221"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="208"/>
       <c r="B6" s="48"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="221"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="208"/>
       <c r="B7" s="48"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="221"/>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="208"/>
       <c r="B8" s="132" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="131">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="217" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="215">
-        <f>Смета!H66</f>
-        <v>623106.33098111942</v>
-      </c>
+      <c r="D8" s="131"/>
+      <c r="F8" s="318">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="206"/>
       <c r="H8">
         <v>0.5</v>
       </c>
@@ -2860,22 +2742,25 @@
       <c r="J8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="221"/>
+      <c r="L8" s="318">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="208"/>
       <c r="B9" s="48" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="131">
-        <v>2</v>
-      </c>
-      <c r="F9" s="217" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="215"/>
+      <c r="D9" s="131"/>
+      <c r="F9" s="318">
+        <f t="shared" ref="F9:F65" si="0">G9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="206"/>
       <c r="H9">
         <v>0.6</v>
       </c>
@@ -2888,20 +2773,23 @@
       <c r="K9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="221"/>
+      <c r="L9" s="318">
+        <f t="shared" ref="L9:L65" si="1">M9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="208"/>
       <c r="B10" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="131">
-        <v>6</v>
-      </c>
-      <c r="F10" s="217" t="s">
-        <v>185</v>
+      <c r="D10" s="131"/>
+      <c r="F10" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.7</v>
@@ -2915,20 +2803,23 @@
       <c r="K10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="221"/>
+      <c r="L10" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="208"/>
       <c r="B11" s="48" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="131">
-        <v>6</v>
-      </c>
-      <c r="F11" s="217" t="s">
-        <v>186</v>
+      <c r="D11" s="131"/>
+      <c r="F11" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0.8</v>
@@ -2942,20 +2833,23 @@
       <c r="K11">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="221"/>
+      <c r="L11" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="208"/>
       <c r="B12" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="131">
-        <v>0</v>
-      </c>
-      <c r="F12" s="217" t="s">
-        <v>187</v>
+      <c r="D12" s="131"/>
+      <c r="F12" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0.9</v>
@@ -2969,113 +2863,571 @@
       <c r="K12">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="221"/>
+      <c r="L12" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="208"/>
       <c r="B13" s="48"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
-      <c r="F13" s="218" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="221"/>
+      <c r="F13" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="208"/>
       <c r="B14" s="50" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="131">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="218" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="221"/>
+      <c r="D14" s="131"/>
+      <c r="F14" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="208"/>
       <c r="B15" s="50" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="131">
-        <v>0</v>
-      </c>
-      <c r="F15" s="218" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="221"/>
+      <c r="D15" s="131"/>
+      <c r="F15" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="208"/>
       <c r="B16" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="131">
-        <v>111.72</v>
-      </c>
-      <c r="F16" s="218" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="221"/>
+      <c r="D16" s="131"/>
+      <c r="F16" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="208"/>
       <c r="B17" s="50"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="F17" s="218" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="F18" s="219" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="F19" s="219" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="F20" s="219" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="F21" s="219" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="F22" s="219" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="F23" s="220" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="F24" s="220" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="F25" s="220" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" s="220" t="s">
-        <v>199</v>
+      <c r="F17" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="F18" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="F19" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="F20" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="F21" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="F22" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="F23" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="F24" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="F25" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="F26" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="F28" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="F29" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="F30" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="F31" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="F32" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12">
+      <c r="F33" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12">
+      <c r="F34" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12">
+      <c r="F37" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12">
+      <c r="F39" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12">
+      <c r="F40" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12">
+      <c r="F41" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12">
+      <c r="F42" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12">
+      <c r="F43" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12">
+      <c r="F44" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12">
+      <c r="F45" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12">
+      <c r="F46" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12">
+      <c r="F47" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="F48" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12">
+      <c r="F49" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12">
+      <c r="F50" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12">
+      <c r="F51" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12">
+      <c r="F52" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12">
+      <c r="F53" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12">
+      <c r="F54" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12">
+      <c r="F55" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12">
+      <c r="F56" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12">
+      <c r="F57" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12">
+      <c r="F58" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12">
+      <c r="F59" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12">
+      <c r="F60" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12">
+      <c r="F61" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12">
+      <c r="F62" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12">
+      <c r="F63" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12">
+      <c r="F64" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12">
+      <c r="F65" s="318">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="318">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Лист2">
+  <sheetPr codeName="Worksheet____2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:T35"/>
@@ -3122,41 +3474,41 @@
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
       <c r="D1" s="63"/>
-      <c r="E1" s="230" t="s">
+      <c r="E1" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="230"/>
-      <c r="G1" s="231"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="223"/>
       <c r="H1" s="53"/>
-      <c r="I1" s="236" t="s">
+      <c r="I1" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="237"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="229"/>
       <c r="M1" s="53"/>
-      <c r="N1" s="226" t="s">
+      <c r="N1" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="226"/>
-      <c r="P1" s="227"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="218"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="211" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
       <c r="G2" s="56"/>
-      <c r="H2" s="228" t="s">
+      <c r="H2" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="229"/>
+      <c r="I2" s="212"/>
       <c r="L2" s="56"/>
       <c r="M2" s="69"/>
       <c r="N2" s="144">
         <f>ROUNDUP(данные!D16/100,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="56"/>
     </row>
@@ -3164,11 +3516,11 @@
       <c r="A3" s="57"/>
       <c r="B3" s="52">
         <f>данные!D4/5.45</f>
-        <v>14.623853211009175</v>
-      </c>
-      <c r="C3" s="161">
+        <v>0</v>
+      </c>
+      <c r="C3" s="156">
         <f>ROUNDUP(B3,0)*5.85</f>
-        <v>87.75</v>
+        <v>0</v>
       </c>
       <c r="D3" s="64" t="s">
         <v>11</v>
@@ -3177,11 +3529,11 @@
       <c r="G3" s="58"/>
       <c r="H3" s="67">
         <f>данные!D4*(данные!D5+0.1)*(0.1+данные!D14+данные!D15+данные!D13/2)+данные!D6*(данные!D7+0.1)*(0.1+данные!D14+данные!D15+данные!D13/2)</f>
-        <v>9.5640000000000018</v>
+        <v>0</v>
       </c>
       <c r="I3" s="144">
         <f>H3</f>
-        <v>9.5640000000000018</v>
+        <v>0</v>
       </c>
       <c r="J3" s="64" t="s">
         <v>5</v>
@@ -3193,16 +3545,16 @@
       <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="228" t="s">
+      <c r="A4" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="212"/>
       <c r="G4" s="56"/>
-      <c r="H4" s="228" t="s">
+      <c r="H4" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="229"/>
+      <c r="I4" s="212"/>
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:20" s="52" customFormat="1">
@@ -3211,7 +3563,7 @@
         <f>данные!D6/5.45</f>
         <v>0</v>
       </c>
-      <c r="C5" s="161">
+      <c r="C5" s="156">
         <f>ROUNDUP(B5,0)*5.85</f>
         <v>0</v>
       </c>
@@ -3222,11 +3574,11 @@
       <c r="G5" s="58"/>
       <c r="H5" s="67">
         <f>данные!D4*(данные!D5+0.1)+данные!D6*(данные!D7+0.1)</f>
-        <v>31.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" s="144">
         <f>H5</f>
-        <v>31.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>3</v>
@@ -3234,27 +3586,27 @@
       <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="228" t="s">
+      <c r="A6" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
       <c r="G6" s="56"/>
-      <c r="H6" s="232" t="s">
+      <c r="H6" s="224" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="233"/>
+      <c r="I6" s="225"/>
       <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:20" s="52" customFormat="1">
       <c r="A7" s="57"/>
       <c r="B7" s="52">
         <f>(данные!D5-0.06)/0.17</f>
-        <v>1.4117647058823528</v>
-      </c>
-      <c r="C7" s="161">
+        <v>-0.3529411764705882</v>
+      </c>
+      <c r="C7" s="156">
         <f>ROUNDUP(B7,0)</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>60</v>
@@ -3263,11 +3615,11 @@
       <c r="G7" s="58"/>
       <c r="H7" s="67">
         <f>H5*данные!D14</f>
-        <v>6.3760000000000012</v>
+        <v>0</v>
       </c>
       <c r="I7" s="144">
         <f>H7</f>
-        <v>6.3760000000000012</v>
+        <v>0</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>5</v>
@@ -3275,11 +3627,11 @@
       <c r="L7" s="58"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
+      <c r="B8" s="212"/>
+      <c r="C8" s="212"/>
       <c r="G8" s="56"/>
       <c r="H8" s="69" t="s">
         <v>79</v>
@@ -3292,7 +3644,7 @@
         <f>IF(данные!D6=0,0,(данные!D7-0.06)/0.15)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="161">
+      <c r="C9" s="156">
         <f>ROUNDUP(B9,0)</f>
         <v>0</v>
       </c>
@@ -3315,21 +3667,21 @@
       <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:20" s="52" customFormat="1">
-      <c r="A10" s="228" t="s">
+      <c r="A10" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="229"/>
-      <c r="C10" s="229"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="212"/>
       <c r="D10" s="51"/>
       <c r="E10" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="56"/>
-      <c r="H10" s="234" t="s">
+      <c r="H10" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="235"/>
+      <c r="I10" s="227"/>
       <c r="J10" s="64"/>
       <c r="L10" s="58"/>
     </row>
@@ -3337,18 +3689,18 @@
       <c r="A11" s="57"/>
       <c r="B11" s="52">
         <f>(данные!D8+данные!D13)/0.3+1</f>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="C11" s="161">
+        <v>1</v>
+      </c>
+      <c r="C11" s="156">
         <f>ROUNDUP(B11,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="141">
         <f>(C11*C7*C3+C11*C9*C5)*0.889/1000*1.05</f>
-        <v>0.49146142500000001</v>
+        <v>0</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>24</v>
@@ -3358,11 +3710,11 @@
       </c>
       <c r="H11" s="145">
         <f>(данные!D4)*(данные!D5+0.1+0.1*2+данные!D13+(данные!D14+данные!D15)*2)+(данные!D6*(данные!D7+0.1+0.1*2+данные!D13+(данные!D14+данные!D15)*2))+(данные!D9+данные!D10+данные!D11+данные!D12)*((данные!D5+0.1)*2)</f>
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="68">
         <f>ROUNDUP((данные!D4+данные!D6)/1000/48,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="64" t="s">
         <v>3</v>
@@ -3377,11 +3729,11 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="229"/>
-      <c r="C12" s="229"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="212"/>
       <c r="G12" s="56"/>
       <c r="H12" s="71"/>
       <c r="I12" s="54"/>
@@ -3389,19 +3741,19 @@
       <c r="K12" s="54"/>
       <c r="L12" s="54"/>
       <c r="M12" s="54"/>
-      <c r="N12" s="226" t="s">
+      <c r="N12" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="226"/>
-      <c r="P12" s="227"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
     </row>
     <row r="13" spans="1:20" s="52" customFormat="1" ht="64">
       <c r="A13" s="57"/>
       <c r="B13" s="144">
         <f>данные!D9*расчеты!C11*4</f>
-        <v>24</v>
-      </c>
-      <c r="C13" s="161">
+        <v>0</v>
+      </c>
+      <c r="C13" s="156">
         <f>данные!D7+1.4</f>
         <v>1.4</v>
       </c>
@@ -3410,7 +3762,7 @@
       </c>
       <c r="E13" s="141">
         <f>данные!D5*5*B13*0.889/1000*1.02</f>
-        <v>3.2644079999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="64" t="s">
         <v>24</v>
@@ -3420,46 +3772,46 @@
       </c>
       <c r="H13" s="145">
         <f>(данные!D4+данные!D6)*2*(ROUNDUP((данные!D8+0.1+данные!D13)/0.1,0)*0.1)</f>
-        <v>95.640000000000015</v>
+        <v>0</v>
       </c>
       <c r="J13" s="64">
         <f>ROUNDUP((данные!D4+данные!D6)/0.9,0)*2</f>
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K13" s="52">
         <f>J13/2</f>
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L13" s="52">
         <f>(данные!D8+0.1+данные!D13)*2</f>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="N13" s="70" t="s">
         <v>85</v>
       </c>
       <c r="P13" s="146">
         <f>(H13*0.05+J13*(данные!D8+0.1+данные!D13)*0.05*0.1+K13*L13*0.05*0.1)*1.05</f>
-        <v>6.142500000000001</v>
-      </c>
-      <c r="Q13" s="163"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="158"/>
     </row>
     <row r="14" spans="1:20" ht="80">
-      <c r="A14" s="228" t="s">
+      <c r="A14" s="211" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="229"/>
-      <c r="C14" s="229"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="212"/>
       <c r="G14" s="56"/>
       <c r="H14" s="67">
         <f>(данные!D5+0.3)*1000</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I14" s="64" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="72">
         <f>ROUNDUP(данные!D4/0.9,0)*2</f>
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="M14" s="52" t="s">
         <v>84</v>
@@ -3469,15 +3821,15 @@
       </c>
       <c r="O14" s="144">
         <f>CEILING(K14/ROUNDDOWN(2000/H14,0),1)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P14" s="74">
         <f>K14*2</f>
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="64">
         <f>FLOOR(2000/H14,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R14" s="64">
         <f>2000-H14*Q14</f>
@@ -3496,18 +3848,18 @@
       <c r="A15" s="57"/>
       <c r="B15" s="144">
         <f>данные!D10*C11*2</f>
-        <v>36</v>
-      </c>
-      <c r="C15" s="161">
+        <v>0</v>
+      </c>
+      <c r="C15" s="156">
         <f>данные!D5+1.4</f>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="141">
         <f>данные!D5*6*B15*0.889/1000*1.02</f>
-        <v>5.8759343999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>24</v>
@@ -3547,16 +3899,16 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="32">
-      <c r="A16" s="228" t="s">
+      <c r="A16" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="229"/>
-      <c r="C16" s="229"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="212"/>
       <c r="G16" s="56"/>
       <c r="H16" s="69"/>
       <c r="K16" s="144">
         <f>ROUNDUP(K14*H14/1000+K15*H15/1000,0)</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="M16" t="s">
         <v>11</v>
@@ -3570,18 +3922,18 @@
       <c r="A17" s="57"/>
       <c r="B17" s="144">
         <f>данные!D11*C11*2</f>
-        <v>36</v>
-      </c>
-      <c r="C17" s="161">
+        <v>0</v>
+      </c>
+      <c r="C17" s="156">
         <f>данные!D5+1.4</f>
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="141">
         <f>C17*B17*0.889/1000*1.02</f>
-        <v>5.5494936000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>24</v>
@@ -3591,7 +3943,7 @@
       </c>
       <c r="H17" s="147">
         <f>H13+данные!D4*данные!D5+данные!D6*данные!D7+(данные!D4+данные!D6)*0.2</f>
-        <v>135.49</v>
+        <v>0</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="64"/>
@@ -3604,18 +3956,18 @@
       <c r="A18" s="57"/>
       <c r="B18" s="144">
         <f>данные!D11*C11</f>
-        <v>18</v>
-      </c>
-      <c r="C18" s="161">
+        <v>0</v>
+      </c>
+      <c r="C18" s="156">
         <f>данные!D5*2+1.4</f>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="141">
         <f>C18*B18*0.889/1000*1.02</f>
-        <v>3.2644079999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>24</v>
@@ -3623,22 +3975,22 @@
       <c r="G18" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="162"/>
+      <c r="H18" s="157"/>
       <c r="I18" s="51"/>
       <c r="J18" s="64"/>
       <c r="P18" s="58"/>
     </row>
     <row r="19" spans="1:16" ht="32">
-      <c r="A19" s="228" t="s">
+      <c r="A19" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="229"/>
-      <c r="C19" s="229"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
       <c r="G19" s="56"/>
       <c r="H19" s="69"/>
       <c r="K19" s="144">
         <f>(ROUNDUP((данные!D8+данные!D13)/0.1,0))*J13*2/102</f>
-        <v>17.450980392156861</v>
+        <v>0</v>
       </c>
       <c r="M19" s="52" t="s">
         <v>20</v>
@@ -3654,7 +4006,7 @@
         <f>данные!D12*C11*2</f>
         <v>0</v>
       </c>
-      <c r="C20" s="161">
+      <c r="C20" s="156">
         <f>1.6</f>
         <v>1.6</v>
       </c>
@@ -3675,7 +4027,7 @@
       <c r="J20" s="64"/>
       <c r="K20" s="144">
         <f>K13*4/130</f>
-        <v>2.7384615384615385</v>
+        <v>0</v>
       </c>
       <c r="M20" s="52" t="s">
         <v>20</v>
@@ -3686,11 +4038,11 @@
       <c r="P20" s="58"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="228" t="s">
+      <c r="A21" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="229"/>
-      <c r="C21" s="229"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
       <c r="G21" s="56"/>
       <c r="H21" s="69"/>
       <c r="P21" s="56"/>
@@ -3701,18 +4053,18 @@
       </c>
       <c r="B22" s="144">
         <f>данные!D4/0.2</f>
-        <v>398.5</v>
-      </c>
-      <c r="C22" s="161">
+        <v>0</v>
+      </c>
+      <c r="C22" s="156">
         <f>(данные!D8+данные!D13-0.1)*2+(данные!D5-0.06)*2+0.12*2</f>
-        <v>1.52</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="D22" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="141">
         <f>B22*C22*0.395/1000*1.05</f>
-        <v>0.25122237000000003</v>
+        <v>0</v>
       </c>
       <c r="F22" s="64" t="s">
         <v>24</v>
@@ -3722,28 +4074,28 @@
       </c>
       <c r="H22" s="57">
         <f>данные!D5</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="52">
         <f>ROUNDUP(данные!D4/5*2,0)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J22" s="52">
         <f>данные!D5*I22</f>
-        <v>9.6</v>
-      </c>
-      <c r="K22" s="52">
+        <v>0</v>
+      </c>
+      <c r="K22" s="52" t="e">
         <f>CEILING(I22/ROUNDDOWN(2/H22,0),1)</f>
-        <v>6</v>
-      </c>
-      <c r="L22" s="240">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="215" t="e">
         <f>K22+K23</f>
-        <v>6</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N22" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="P22" s="209" t="s">
+      <c r="P22" s="200" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3755,9 +4107,9 @@
         <f>данные!D6/0.2</f>
         <v>0</v>
       </c>
-      <c r="C23" s="161">
+      <c r="C23" s="156">
         <f>(данные!D8+данные!D13-0.1)*2+(данные!D7-0.06)*2+0.12*2</f>
-        <v>0.92</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="D23" s="64" t="s">
         <v>11</v>
@@ -3788,51 +4140,51 @@
         <f>IF(данные!D6=0,0,CEILING(I23/ROUNDDOWN(2/H23,0),1))</f>
         <v>0</v>
       </c>
-      <c r="L23" s="241"/>
+      <c r="L23" s="216"/>
       <c r="M23" s="76"/>
       <c r="N23" s="76" t="s">
         <v>89</v>
       </c>
       <c r="O23" s="76"/>
-      <c r="P23" s="210" t="s">
+      <c r="P23" s="201" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="228" t="s">
+      <c r="A24" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="229"/>
-      <c r="C24" s="229"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="212"/>
       <c r="G24" s="56"/>
       <c r="H24" s="53"/>
       <c r="I24" s="54"/>
       <c r="J24" s="63"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="226" t="s">
+      <c r="L24" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="226"/>
-      <c r="N24" s="226"/>
-      <c r="O24" s="226"/>
-      <c r="P24" s="227"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="218"/>
     </row>
     <row r="25" spans="1:16" s="52" customFormat="1" ht="31.25" customHeight="1">
       <c r="A25" s="57"/>
       <c r="B25" s="144">
         <f>ROUNDUP(C25/((данные!D8+данные!D13-0.05)),0)+1</f>
-        <v>268</v>
-      </c>
-      <c r="C25" s="161">
+        <v>1</v>
+      </c>
+      <c r="C25" s="156">
         <f>ROUNDUP(((данные!D4/0.6*расчеты!C7+данные!D6/0.6*расчеты!C9)*(данные!D8+данные!D13-0.05)),0)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D25" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="141">
         <f>C25*0.889/1000*1.02</f>
-        <v>0.10881360000000001</v>
+        <v>0</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>24</v>
@@ -3840,28 +4192,28 @@
       <c r="G25" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="79" t="e">
         <f>данные!D4/9/I25</f>
-        <v>2.9518518518518522</v>
-      </c>
-      <c r="I25" s="52">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="52" t="e">
         <f>ROUNDDOWN(1/данные!D5,0)</f>
-        <v>3</v>
-      </c>
-      <c r="J25" s="242">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="219" t="e">
         <f>CEILING(H25+H26,1)</f>
-        <v>3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="52">
         <f>данные!D4*данные!D5</f>
-        <v>23.91</v>
-      </c>
-      <c r="N25" s="242">
+        <v>0</v>
+      </c>
+      <c r="N25" s="219">
         <f>L25+L26</f>
-        <v>23.91</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>3</v>
@@ -3869,11 +4221,11 @@
       <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="228" t="s">
+      <c r="A26" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="229"/>
-      <c r="C26" s="229"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
       <c r="G26" s="56"/>
       <c r="H26" s="78">
         <f>IF(данные!D6=0,0,данные!D6/9/I26)</f>
@@ -3883,12 +4235,12 @@
         <f>IF(данные!D7=0,0,ROUNDDOWN(1/данные!D7,0))</f>
         <v>0</v>
       </c>
-      <c r="J26" s="240"/>
+      <c r="J26" s="215"/>
       <c r="L26" s="52">
         <f>данные!D6*данные!D7</f>
         <v>0</v>
       </c>
-      <c r="N26" s="242"/>
+      <c r="N26" s="219"/>
       <c r="P26" s="56"/>
     </row>
     <row r="27" spans="1:16" ht="16" thickBot="1">
@@ -3898,7 +4250,7 @@
       <c r="D27" s="65"/>
       <c r="E27" s="142">
         <f>(E11+E13+E15+E17+E20+E22+E23+E25)*0.03</f>
-        <v>2.9951872649999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="66" t="s">
         <v>24</v>
@@ -3914,7 +4266,7 @@
       <c r="M27" s="61"/>
       <c r="N27" s="149">
         <f>ROUNDUP(N25*1.2/20,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="61" t="s">
         <v>144</v>
@@ -3937,16 +4289,16 @@
       <c r="K28" s="54"/>
       <c r="L28" s="54"/>
       <c r="M28" s="54"/>
-      <c r="N28" s="238" t="s">
+      <c r="N28" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="214"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="148">
         <f>данные!D4*данные!D5*((данные!D8+данные!D13+0.1))+данные!D6*данные!D7*((данные!D8+данные!D13+0.1))</f>
-        <v>14.346</v>
+        <v>0</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="55"/>
@@ -3990,16 +4342,16 @@
       <c r="D31" s="82"/>
       <c r="E31" s="149">
         <f>CEILING((G31+H31)/8,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="65"/>
       <c r="G31" s="83">
         <f>E11+E13+E15+E17+E20+E22+E23+E25+E27</f>
-        <v>1.0283476276500001</v>
+        <v>0</v>
       </c>
       <c r="H31" s="84">
         <f>P13*0.8</f>
-        <v>4.9140000000000015</v>
+        <v>0</v>
       </c>
       <c r="I31" s="150">
         <v>1</v>
@@ -4010,11 +4362,11 @@
       </c>
       <c r="K31" s="151">
         <f>+CEILING(H3/34,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="151">
         <f>ROUNDUP(A29/54,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
@@ -4022,36 +4374,25 @@
       <c r="P31" s="62"/>
     </row>
     <row r="34" spans="2:6" ht="16">
-      <c r="B34" s="224" t="s">
+      <c r="B34" s="220" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
     </row>
     <row r="35" spans="2:6" ht="16">
-      <c r="B35" s="225" t="s">
+      <c r="B35" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="204"/>
-      <c r="F35" s="204"/>
+      <c r="C35" s="221"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="N1:P1"/>
@@ -4068,6 +4409,17 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4076,7 +4428,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Лист3">
+  <sheetPr codeName="Worksheet____3">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:G56"/>
@@ -4107,10 +4459,10 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="254" t="s">
+      <c r="B3" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="255"/>
+      <c r="C3" s="231"/>
       <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
@@ -4147,10 +4499,10 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="257"/>
+      <c r="C6" s="233"/>
       <c r="D6" s="51" t="s">
         <v>5</v>
       </c>
@@ -4159,10 +4511,10 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="247"/>
+      <c r="C7" s="235"/>
       <c r="D7" s="51" t="s">
         <v>5</v>
       </c>
@@ -4175,10 +4527,10 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="234" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="247"/>
+      <c r="C8" s="235"/>
       <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
@@ -4187,10 +4539,10 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="247"/>
+      <c r="C9" s="235"/>
       <c r="D9" s="51" t="s">
         <v>20</v>
       </c>
@@ -4199,10 +4551,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="247"/>
+      <c r="C10" s="235"/>
       <c r="D10" s="51" t="s">
         <v>20</v>
       </c>
@@ -4211,10 +4563,10 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="234" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="247"/>
+      <c r="C11" s="235"/>
       <c r="D11" s="51" t="s">
         <v>11</v>
       </c>
@@ -4223,10 +4575,10 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="258" t="s">
+      <c r="B12" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="259"/>
+      <c r="C12" s="237"/>
       <c r="D12" s="51" t="s">
         <v>20</v>
       </c>
@@ -4235,10 +4587,10 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="260" t="s">
+      <c r="B13" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="247"/>
+      <c r="C13" s="235"/>
       <c r="D13" s="51" t="s">
         <v>20</v>
       </c>
@@ -4247,10 +4599,10 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="247"/>
+      <c r="C14" s="235"/>
       <c r="D14" s="51" t="s">
         <v>3</v>
       </c>
@@ -4259,10 +4611,10 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="248" t="s">
+      <c r="B15" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="249"/>
+      <c r="C15" s="243"/>
       <c r="D15" s="51" t="s">
         <v>24</v>
       </c>
@@ -4275,10 +4627,10 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="250" t="s">
+      <c r="B16" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="249"/>
+      <c r="C16" s="243"/>
       <c r="D16" s="51" t="s">
         <v>24</v>
       </c>
@@ -4291,10 +4643,10 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="251" t="s">
+      <c r="B17" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="252"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="51" t="s">
         <v>24</v>
       </c>
@@ -4307,10 +4659,10 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="244"/>
+      <c r="C18" s="240"/>
       <c r="D18" s="51" t="s">
         <v>5</v>
       </c>
@@ -4319,10 +4671,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="243" t="s">
+      <c r="B19" s="239" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="244"/>
+      <c r="C19" s="240"/>
       <c r="D19" s="51" t="s">
         <v>12</v>
       </c>
@@ -4331,10 +4683,10 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="253" t="s">
+      <c r="B20" s="247" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="253"/>
+      <c r="C20" s="247"/>
       <c r="D20" s="51" t="s">
         <v>12</v>
       </c>
@@ -4355,10 +4707,10 @@
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="253" t="s">
+      <c r="B22" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="253"/>
+      <c r="C22" s="247"/>
       <c r="D22" s="51" t="s">
         <v>145</v>
       </c>
@@ -4367,26 +4719,26 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="243" t="s">
+      <c r="B23" s="239" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="244"/>
+      <c r="C23" s="240"/>
       <c r="D23" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="118">
         <f>E25*F25+E26*F26+E27*F27</f>
-        <v>1890</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="245" t="s">
+      <c r="B25" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="245"/>
+      <c r="C25" s="241"/>
       <c r="D25" s="51" t="s">
         <v>12</v>
       </c>
@@ -4395,14 +4747,14 @@
       </c>
       <c r="F25" s="117">
         <f>CEILING((расчеты!B13+расчеты!B15+расчеты!B17+расчеты!B20+расчеты!B25)/20+(расчеты!B22+расчеты!B23)/30,1)</f>
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="245" t="s">
+      <c r="B26" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="245"/>
+      <c r="C26" s="241"/>
       <c r="D26" s="51" t="s">
         <v>120</v>
       </c>
@@ -4411,14 +4763,14 @@
       </c>
       <c r="F26" s="118">
         <f>ROUNDUP(расчеты!H17*8/1000,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="245" t="s">
+      <c r="B27" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="245"/>
+      <c r="C27" s="241"/>
       <c r="D27" s="51" t="s">
         <v>122</v>
       </c>
@@ -4427,7 +4779,7 @@
       </c>
       <c r="F27" s="117">
         <f>ROUNDUP((данные!D4+данные!D6)*2.2/150,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -4483,211 +4835,211 @@
       <c r="E32" s="42"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="211" t="s">
+      <c r="B35" s="202" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="212" t="s">
+      <c r="C35" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="212" t="s">
+      <c r="D35" s="203" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="17">
-      <c r="B36" s="213" t="s">
+      <c r="B36" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="212" t="s">
+      <c r="C36" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="214">
+      <c r="D36" s="205">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17">
-      <c r="B37" s="213" t="s">
+      <c r="B37" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="212" t="s">
+      <c r="C37" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="214">
+      <c r="D37" s="205">
         <v>1250</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="17">
-      <c r="B38" s="213" t="s">
+      <c r="B38" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="212" t="s">
+      <c r="C38" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="214">
+      <c r="D38" s="205">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="17">
-      <c r="B39" s="213" t="s">
+      <c r="B39" s="204" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="212" t="s">
+      <c r="C39" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="214">
+      <c r="D39" s="205">
         <v>800</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="212" t="s">
+      <c r="C40" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="214">
+      <c r="D40" s="205">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="17">
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="204" t="s">
         <v>178</v>
       </c>
-      <c r="C41" s="212" t="s">
+      <c r="C41" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="214">
+      <c r="D41" s="205">
         <v>800</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="17">
-      <c r="B42" s="213" t="s">
+      <c r="B42" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="212" t="s">
+      <c r="C42" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="214">
+      <c r="D42" s="205">
         <v>240</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="17">
-      <c r="B43" s="213" t="s">
+      <c r="B43" s="204" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="212" t="s">
+      <c r="C43" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="214">
+      <c r="D43" s="205">
         <v>17500</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="17">
-      <c r="B44" s="213" t="s">
+      <c r="B44" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="212" t="s">
+      <c r="C44" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="214">
+      <c r="D44" s="205">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="17">
-      <c r="B45" s="213" t="s">
+      <c r="B45" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="212" t="s">
+      <c r="C45" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="214">
+      <c r="D45" s="205">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="17">
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="204" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="212" t="s">
+      <c r="C46" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="214">
+      <c r="D46" s="205">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="17">
-      <c r="B47" s="213" t="s">
+      <c r="B47" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="212" t="s">
+      <c r="C47" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="214">
+      <c r="D47" s="205">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="17">
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="212" t="s">
+      <c r="C48" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="214">
+      <c r="D48" s="205">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17">
-      <c r="B49" s="213" t="s">
+      <c r="B49" s="204" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="212" t="s">
+      <c r="C49" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="214">
+      <c r="D49" s="205">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="17">
-      <c r="B50" s="213" t="s">
+      <c r="B50" s="204" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="212" t="s">
+      <c r="C50" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="214">
+      <c r="D50" s="205">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="17">
-      <c r="B51" s="213" t="s">
+      <c r="B51" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="212" t="s">
+      <c r="C51" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="214">
+      <c r="D51" s="205">
         <v>5000</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17">
-      <c r="B52" s="213" t="s">
+      <c r="B52" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="212" t="s">
+      <c r="C52" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="214">
+      <c r="D52" s="205">
         <v>450</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17">
-      <c r="B53" s="213" t="s">
+      <c r="B53" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="212" t="s">
+      <c r="C53" s="203" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="214">
+      <c r="D53" s="205">
         <v>4500</v>
       </c>
     </row>
@@ -4702,15 +5054,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -4723,6 +5066,15 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4730,11 +5082,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Лист4"/>
+  <sheetPr codeName="Worksheet____4"/>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4743,418 +5095,419 @@
     <col min="2" max="2" width="43.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="64" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="189" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="184" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="34.5" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="189" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="184" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="164" customFormat="1" ht="14.5" customHeight="1">
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="275" t="s">
+    <row r="1" spans="1:15" s="159" customFormat="1" ht="14.5" customHeight="1">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="306" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-    </row>
-    <row r="2" spans="1:15" s="164" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A2" s="272" t="s">
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+    </row>
+    <row r="2" spans="1:15" s="159" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A2" s="303" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="275" t="s">
+      <c r="B2" s="303"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="306" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-    </row>
-    <row r="3" spans="1:15" s="164" customFormat="1" ht="14">
-      <c r="A3" s="267" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="267"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="274" t="s">
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
+      <c r="M2" s="306"/>
+    </row>
+    <row r="3" spans="1:15" s="159" customFormat="1" ht="14">
+      <c r="A3" s="307" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="307"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="305" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="166"/>
-    </row>
-    <row r="4" spans="1:15" s="164" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="161"/>
+    </row>
+    <row r="4" spans="1:15" s="159" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A4" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="270" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="310" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
-      <c r="K4" s="270"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-    </row>
-    <row r="5" spans="1:15" s="164" customFormat="1" ht="14">
-      <c r="A5" s="267" t="s">
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310"/>
+    </row>
+    <row r="5" spans="1:15" s="159" customFormat="1" ht="14">
+      <c r="A5" s="307" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="267"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="268" t="s">
+      <c r="B5" s="307"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="308" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="269" t="s">
+      <c r="E5" s="308"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="309" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="269"/>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-    </row>
-    <row r="6" spans="1:15" s="164" customFormat="1" ht="16">
-      <c r="A6" s="271" t="s">
+      <c r="J5" s="309"/>
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="309"/>
+    </row>
+    <row r="6" spans="1:15" s="159" customFormat="1" ht="16">
+      <c r="A6" s="312" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="271"/>
-    </row>
-    <row r="7" spans="1:15" s="164" customFormat="1" ht="16">
-      <c r="A7" s="264" t="s">
+      <c r="B6" s="312"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="312"/>
+      <c r="I6" s="312"/>
+      <c r="J6" s="312"/>
+      <c r="K6" s="312"/>
+      <c r="L6" s="312"/>
+      <c r="M6" s="312"/>
+    </row>
+    <row r="7" spans="1:15" s="159" customFormat="1" ht="16">
+      <c r="A7" s="315" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
-      <c r="J7" s="264"/>
-      <c r="K7" s="264"/>
-      <c r="L7" s="264"/>
-      <c r="M7" s="264"/>
-    </row>
-    <row r="8" spans="1:15" s="164" customFormat="1" ht="16">
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="266" t="str">
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="315"/>
+    </row>
+    <row r="8" spans="1:15" s="159" customFormat="1" ht="16">
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="317" t="str">
         <f>IF(данные!D13=0,расчеты!B34,расчеты!B35)</f>
         <v>сечение фундамента в мм. ВхШ</v>
       </c>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="205">
+      <c r="E8" s="317"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="196">
         <f>IF(данные!D13=0,данные!D8+0.1,данные!D8+0.1+данные!D13)*1000</f>
-        <v>600</v>
-      </c>
-      <c r="K8" s="206">
+        <v>100</v>
+      </c>
+      <c r="K8" s="197">
         <f>данные!D5*1000</f>
-        <v>300</v>
-      </c>
-      <c r="L8" s="197"/>
-      <c r="M8" s="196"/>
-    </row>
-    <row r="9" spans="1:15" s="164" customFormat="1" ht="16">
-      <c r="A9" s="196"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="196"/>
-    </row>
-    <row r="10" spans="1:15" s="164" customFormat="1" ht="42">
-      <c r="A10" s="198" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="188"/>
+      <c r="M8" s="187"/>
+    </row>
+    <row r="9" spans="1:15" s="159" customFormat="1" ht="16">
+      <c r="A9" s="187"/>
+      <c r="B9" s="316"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="187"/>
+    </row>
+    <row r="10" spans="1:15" s="159" customFormat="1" ht="42">
+      <c r="A10" s="189" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="311" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="262"/>
-      <c r="D10" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="199" t="s">
+      <c r="C10" s="311"/>
+      <c r="D10" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="200" t="s">
+      <c r="F10" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="G10" s="200" t="s">
+      <c r="G10" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="262" t="s">
+      <c r="H10" s="311" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="262"/>
-      <c r="J10" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="199" t="s">
+      <c r="I10" s="311"/>
+      <c r="J10" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="L10" s="199" t="s">
+      <c r="L10" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="200" t="s">
+      <c r="M10" s="191" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="164" customFormat="1" ht="13">
-      <c r="A11" s="201">
+    <row r="11" spans="1:15" s="159" customFormat="1" ht="13">
+      <c r="A11" s="192">
         <v>1</v>
       </c>
-      <c r="B11" s="263">
+      <c r="B11" s="314">
         <v>2</v>
       </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="201">
+      <c r="C11" s="314"/>
+      <c r="D11" s="192">
         <v>3</v>
       </c>
-      <c r="E11" s="202">
+      <c r="E11" s="193">
         <v>4</v>
       </c>
-      <c r="F11" s="203">
+      <c r="F11" s="194">
         <v>5</v>
       </c>
-      <c r="G11" s="203">
+      <c r="G11" s="194">
         <v>6</v>
       </c>
-      <c r="H11" s="261">
+      <c r="H11" s="313">
         <v>7</v>
       </c>
-      <c r="I11" s="261"/>
-      <c r="J11" s="202">
+      <c r="I11" s="313"/>
+      <c r="J11" s="193">
         <v>8</v>
       </c>
-      <c r="K11" s="202">
+      <c r="K11" s="193">
         <v>9</v>
       </c>
-      <c r="L11" s="202">
+      <c r="L11" s="193">
         <v>10</v>
       </c>
-      <c r="M11" s="203">
+      <c r="M11" s="194">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="328" t="s">
+      <c r="A12" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="328"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="85"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="102">
         <v>1</v>
       </c>
-      <c r="B13" s="327" t="s">
+      <c r="B13" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="327"/>
+      <c r="C13" s="248"/>
       <c r="D13" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="175">
+      <c r="E13" s="170">
         <f>данные!D16</f>
-        <v>111.72</v>
+        <v>0</v>
       </c>
       <c r="F13" s="153">
-        <f>'Ст-сть Матер-Работ'!D36</f>
-        <v>50</v>
+        <f>данные!F13</f>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13:G18" si="0">E13*F13</f>
-        <v>5586</v>
-      </c>
-      <c r="H13" s="300" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="301"/>
+      <c r="I13" s="272"/>
       <c r="J13" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="175">
+      <c r="K13" s="170">
         <f>расчеты!N2</f>
-        <v>2</v>
-      </c>
-      <c r="L13" s="190">
-        <v>3850</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="153">
+        <f>данные!L13</f>
+        <v>0</v>
       </c>
       <c r="M13" s="6">
         <f>K13*L13</f>
-        <v>7700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27.5" customHeight="1">
       <c r="A14" s="102">
         <v>2</v>
       </c>
-      <c r="B14" s="327" t="s">
+      <c r="B14" s="248" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="327"/>
+      <c r="C14" s="248"/>
       <c r="D14" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="175">
+      <c r="E14" s="170">
         <f>расчеты!I3</f>
-        <v>9.5640000000000018</v>
+        <v>0</v>
       </c>
       <c r="F14" s="153">
-        <f>'Ст-сть Матер-Работ'!D37</f>
-        <v>1250</v>
+        <f>данные!F14</f>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>11955.000000000002</v>
-      </c>
-      <c r="H14" s="302"/>
-      <c r="I14" s="303"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="273"/>
+      <c r="I14" s="274"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="190"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="185"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5">
         <v>3</v>
       </c>
-      <c r="B15" s="329" t="s">
+      <c r="B15" s="250" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="330"/>
+      <c r="C15" s="251"/>
       <c r="D15" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="175">
+      <c r="E15" s="170">
         <f>расчеты!I5</f>
-        <v>31.880000000000003</v>
+        <v>0</v>
       </c>
       <c r="F15" s="153">
-        <f>'Ст-сть Матер-Работ'!D38</f>
-        <v>150</v>
+        <f>данные!F15</f>
+        <v>0</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>4782</v>
-      </c>
-      <c r="H15" s="304"/>
-      <c r="I15" s="305"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="275"/>
+      <c r="I15" s="276"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="190"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="185"/>
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="30">
       <c r="A16" s="103">
         <v>4</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="165" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="27">
         <f>данные!D14*1000</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="176">
+      <c r="E16" s="171">
         <f>расчеты!I7</f>
-        <v>6.3760000000000012</v>
-      </c>
-      <c r="F16" s="154">
-        <f>'Ст-сть Матер-Работ'!D39</f>
-        <v>800</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="153">
+        <f>данные!F16</f>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>5100.8000000000011</v>
-      </c>
-      <c r="H16" s="254" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="306"/>
+      <c r="I16" s="277"/>
       <c r="J16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="176">
+      <c r="K16" s="171">
         <f>E16*1.15</f>
-        <v>7.3324000000000007</v>
-      </c>
-      <c r="L16" s="191">
-        <f>'Ст-сть Матер-Работ'!E3</f>
-        <v>1300</v>
+        <v>0</v>
+      </c>
+      <c r="L16" s="153">
+        <f>данные!L16</f>
+        <v>0</v>
       </c>
       <c r="M16" s="10">
         <f>K16*L16</f>
-        <v>9532.1200000000008</v>
+        <v>0</v>
       </c>
       <c r="O16" s="119"/>
     </row>
@@ -5162,24 +5515,24 @@
       <c r="A17" s="104">
         <v>5</v>
       </c>
-      <c r="B17" s="327" t="s">
+      <c r="B17" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="327"/>
+      <c r="C17" s="248"/>
       <c r="D17" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="172">
         <f>расчеты!H11</f>
-        <v>90.9</v>
-      </c>
-      <c r="F17" s="156">
-        <f>'Ст-сть Матер-Работ'!D40</f>
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="153">
+        <f>данные!F17</f>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="0"/>
-        <v>4545</v>
+        <v>0</v>
       </c>
       <c r="H17" s="128" t="s">
         <v>115</v>
@@ -5191,17 +5544,17 @@
       <c r="J17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="177">
+      <c r="K17" s="172">
         <f>расчеты!H11*1.1</f>
-        <v>99.990000000000009</v>
-      </c>
-      <c r="L17" s="192">
-        <f>IF(I17=1500,'Ст-сть Матер-Работ'!E4,'Ст-сть Матер-Работ'!E5)</f>
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="153">
+        <f>данные!L17</f>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <f>K17*L17</f>
-        <v>6499.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30">
@@ -5222,18 +5575,18 @@
         <f>расчеты!I9</f>
         <v>0</v>
       </c>
-      <c r="F18" s="136">
-        <f>'Ст-сть Матер-Работ'!D41</f>
-        <v>800</v>
+      <c r="F18" s="153">
+        <f>данные!F18</f>
+        <v>0</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="256" t="s">
+      <c r="H18" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="259"/>
+      <c r="I18" s="237"/>
       <c r="J18" s="91" t="s">
         <v>5</v>
       </c>
@@ -5241,9 +5594,9 @@
         <f>E18*1.15</f>
         <v>0</v>
       </c>
-      <c r="L18" s="193">
-        <f>'Ст-сть Матер-Работ'!E6</f>
-        <v>3150</v>
+      <c r="L18" s="153">
+        <f>данные!L18</f>
+        <v>0</v>
       </c>
       <c r="M18" s="14">
         <f>K18*L18</f>
@@ -5255,84 +5608,84 @@
       <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="284" t="s">
+      <c r="E19" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="284"/>
+      <c r="F19" s="283"/>
       <c r="G19" s="16">
         <f>SUM(G13:G18)</f>
-        <v>31968.800000000003</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="285" t="s">
+      <c r="K19" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="285"/>
+      <c r="L19" s="284"/>
       <c r="M19" s="90">
         <f>SUM(M13:M18)</f>
-        <v>23731.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="286" t="s">
+      <c r="A20" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="286"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="173"/>
+      <c r="B20" s="285"/>
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="168"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="287" t="s">
+      <c r="B21" s="286" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="288"/>
+      <c r="C21" s="287"/>
       <c r="D21" s="97" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="138">
         <f>расчеты!H13</f>
-        <v>95.640000000000015</v>
-      </c>
-      <c r="F21" s="138">
-        <f>'Ст-сть Матер-Работ'!D42</f>
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="153">
+        <f>данные!F21</f>
+        <v>0</v>
       </c>
       <c r="G21" s="14">
         <f>E21*F21</f>
-        <v>22953.600000000002</v>
-      </c>
-      <c r="H21" s="246" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="247"/>
+      <c r="I21" s="235"/>
       <c r="J21" s="18" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="138">
         <f>расчеты!P13</f>
-        <v>6.142500000000001</v>
-      </c>
-      <c r="L21" s="138">
-        <f>'Ст-сть Матер-Работ'!E7</f>
-        <v>16500</v>
+        <v>0</v>
+      </c>
+      <c r="L21" s="153">
+        <f>данные!L21</f>
+        <v>0</v>
       </c>
       <c r="M21" s="20">
         <f t="shared" ref="M21:M45" si="1">K21*L21</f>
-        <v>101351.25000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5343,24 +5696,24 @@
       <c r="E22" s="138"/>
       <c r="F22" s="138"/>
       <c r="G22" s="137"/>
-      <c r="H22" s="246" t="s">
+      <c r="H22" s="234" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="247"/>
+      <c r="I22" s="235"/>
       <c r="J22" s="18" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="138">
         <f>расчеты!O14+расчеты!O15</f>
-        <v>60</v>
-      </c>
-      <c r="L22" s="138">
-        <f>'Ст-сть Матер-Работ'!E8</f>
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="153">
+        <f>данные!L22</f>
+        <v>0</v>
       </c>
       <c r="M22" s="20">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -5371,24 +5724,24 @@
       <c r="E23" s="138"/>
       <c r="F23" s="138"/>
       <c r="G23" s="137"/>
-      <c r="H23" s="246" t="s">
+      <c r="H23" s="234" t="s">
         <v>132</v>
       </c>
-      <c r="I23" s="247"/>
+      <c r="I23" s="235"/>
       <c r="J23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="138">
         <f>(расчеты!P14+расчеты!P15)/48</f>
-        <v>7.416666666666667</v>
-      </c>
-      <c r="L23" s="138">
-        <f>'Ст-сть Матер-Работ'!E9</f>
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="153">
+        <f>данные!L23</f>
+        <v>0</v>
       </c>
       <c r="M23" s="20">
         <f t="shared" si="1"/>
-        <v>2670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -5399,24 +5752,24 @@
       <c r="E24" s="138"/>
       <c r="F24" s="138"/>
       <c r="G24" s="137"/>
-      <c r="H24" s="246" t="s">
+      <c r="H24" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="247"/>
+      <c r="I24" s="235"/>
       <c r="J24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="138">
         <f>(расчеты!P14+расчеты!P15)/62</f>
-        <v>5.741935483870968</v>
-      </c>
-      <c r="L24" s="138">
-        <f>'Ст-сть Матер-Работ'!E10</f>
-        <v>360</v>
+        <v>0</v>
+      </c>
+      <c r="L24" s="153">
+        <f>данные!L24</f>
+        <v>0</v>
       </c>
       <c r="M24" s="20">
         <f t="shared" si="1"/>
-        <v>2067.0967741935483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -5427,247 +5780,247 @@
       <c r="E25" s="138"/>
       <c r="F25" s="138"/>
       <c r="G25" s="137"/>
-      <c r="H25" s="246" t="s">
+      <c r="H25" s="234" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="247"/>
+      <c r="I25" s="235"/>
       <c r="J25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="138">
         <f>расчеты!K16</f>
-        <v>107</v>
-      </c>
-      <c r="L25" s="138">
-        <f>'Ст-сть Матер-Работ'!E11</f>
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="L25" s="153">
+        <f>данные!L25</f>
+        <v>0</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="1"/>
-        <v>6420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="17"/>
-      <c r="B26" s="287"/>
-      <c r="C26" s="288"/>
+      <c r="B26" s="286"/>
+      <c r="C26" s="287"/>
       <c r="D26" s="97"/>
       <c r="E26" s="138"/>
       <c r="F26" s="138"/>
       <c r="G26" s="137"/>
-      <c r="H26" s="307" t="s">
+      <c r="H26" s="278" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="307"/>
+      <c r="I26" s="278"/>
       <c r="J26" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="138">
         <f>расчеты!K19</f>
-        <v>17.450980392156861</v>
-      </c>
-      <c r="L26" s="138">
-        <f>'Ст-сть Матер-Работ'!E12</f>
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="153">
+        <f>данные!L26</f>
+        <v>0</v>
       </c>
       <c r="M26" s="20">
         <f t="shared" si="1"/>
-        <v>2792.1568627450979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="21"/>
-      <c r="B27" s="289"/>
-      <c r="C27" s="290"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="289"/>
       <c r="D27" s="98"/>
       <c r="E27" s="139"/>
       <c r="F27" s="139"/>
       <c r="G27" s="140"/>
-      <c r="H27" s="308" t="s">
+      <c r="H27" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="309"/>
+      <c r="I27" s="280"/>
       <c r="J27" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="178">
+      <c r="K27" s="173">
         <f>расчеты!K20</f>
-        <v>2.7384615384615385</v>
-      </c>
-      <c r="L27" s="178">
-        <f>'Ст-сть Матер-Работ'!E13</f>
-        <v>390</v>
+        <v>0</v>
+      </c>
+      <c r="L27" s="153">
+        <f>данные!L27</f>
+        <v>0</v>
       </c>
       <c r="M27" s="130">
         <f t="shared" si="1"/>
-        <v>1068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="17"/>
-      <c r="B28" s="289"/>
-      <c r="C28" s="290"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="97"/>
       <c r="E28" s="138"/>
       <c r="F28" s="138"/>
       <c r="G28" s="137"/>
-      <c r="H28" s="246" t="s">
+      <c r="H28" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="247"/>
+      <c r="I28" s="235"/>
       <c r="J28" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K28" s="138">
         <f>расчеты!H17</f>
-        <v>135.49</v>
-      </c>
-      <c r="L28" s="138">
-        <f>'Ст-сть Матер-Работ'!E14</f>
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="L28" s="153">
+        <f>данные!L28</f>
+        <v>0</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" si="1"/>
-        <v>13549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="27.5" customHeight="1">
       <c r="A29" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="279" t="s">
+      <c r="B29" s="290" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="279"/>
+      <c r="C29" s="290"/>
       <c r="D29" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="186">
+      <c r="E29" s="181">
         <f>K29+K30+K31+K32+K36+K35</f>
-        <v>0.96958828365000005</v>
-      </c>
-      <c r="F29" s="157">
-        <f>'Ст-сть Матер-Работ'!D43</f>
-        <v>17500</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="153">
+        <f>данные!F29</f>
+        <v>0</v>
       </c>
       <c r="G29" s="14">
         <f t="shared" ref="G29:G35" si="2">E29*F29</f>
-        <v>16967.794963875</v>
-      </c>
-      <c r="H29" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="249"/>
+      <c r="I29" s="243"/>
       <c r="J29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="179">
+      <c r="K29" s="174">
         <f>расчеты!E11</f>
-        <v>0.49146142500000001</v>
-      </c>
-      <c r="L29" s="194">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+        <v>0</v>
+      </c>
+      <c r="L29" s="153">
+        <f>данные!L29</f>
+        <v>0</v>
       </c>
       <c r="M29" s="20">
         <f t="shared" si="1"/>
-        <v>30340.635080578515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="280" t="s">
+      <c r="B30" s="291" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="281"/>
+      <c r="C30" s="292"/>
       <c r="D30" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="187">
+      <c r="E30" s="182">
         <f>расчеты!B22+расчеты!B23</f>
-        <v>398.5</v>
-      </c>
-      <c r="F30" s="158">
-        <f>'Ст-сть Матер-Работ'!D44</f>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F30" s="153">
+        <f>данные!F30</f>
+        <v>0</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="2"/>
-        <v>4782</v>
-      </c>
-      <c r="H30" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="249"/>
+      <c r="I30" s="243"/>
       <c r="J30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="180">
+      <c r="K30" s="175">
         <f>расчеты!E22+расчеты!E23</f>
-        <v>0.25122237000000003</v>
-      </c>
-      <c r="L30" s="185">
-        <f>'Ст-сть Матер-Работ'!E16</f>
-        <v>70886.075949367078</v>
+        <v>0</v>
+      </c>
+      <c r="L30" s="153">
+        <f>данные!L30</f>
+        <v>0</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" si="1"/>
-        <v>17808.167999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="277" t="s">
+      <c r="B31" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="278"/>
+      <c r="C31" s="300"/>
       <c r="D31" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="176">
+      <c r="E31" s="171">
         <f>расчеты!B17+расчеты!B18</f>
-        <v>54</v>
-      </c>
-      <c r="F31" s="155">
-        <f>'Ст-сть Матер-Работ'!D45</f>
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="153">
+        <f>данные!F31</f>
+        <v>0</v>
       </c>
       <c r="G31" s="108">
         <f t="shared" si="2"/>
-        <v>378</v>
-      </c>
-      <c r="H31" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="249"/>
+      <c r="I31" s="243"/>
       <c r="J31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="179">
+      <c r="K31" s="174">
         <f>расчеты!E17+расчеты!E18</f>
-        <v>8.8139016000000001E-2</v>
-      </c>
-      <c r="L31" s="194">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+        <v>0</v>
+      </c>
+      <c r="L31" s="153">
+        <f>данные!L31</f>
+        <v>0</v>
       </c>
       <c r="M31" s="20">
         <f t="shared" si="1"/>
-        <v>5441.30950016529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="279" t="s">
+      <c r="B32" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="279"/>
+      <c r="C32" s="290"/>
       <c r="D32" s="96" t="s">
         <v>12</v>
       </c>
@@ -5675,28 +6028,28 @@
         <f>расчеты!B20</f>
         <v>0</v>
       </c>
-      <c r="F32" s="137">
-        <f>'Ст-сть Матер-Работ'!D46</f>
-        <v>7</v>
+      <c r="F32" s="153">
+        <f>данные!F32</f>
+        <v>0</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="250" t="s">
+      <c r="H32" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="249"/>
+      <c r="I32" s="243"/>
       <c r="J32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="180">
+      <c r="K32" s="175">
         <f>расчеты!E20</f>
         <v>0</v>
       </c>
-      <c r="L32" s="185">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+      <c r="L32" s="153">
+        <f>данные!L32</f>
+        <v>0</v>
       </c>
       <c r="M32" s="20">
         <f t="shared" si="1"/>
@@ -5705,413 +6058,416 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="24"/>
-      <c r="B33" s="280" t="s">
+      <c r="B33" s="291" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="281"/>
+      <c r="C33" s="292"/>
       <c r="D33" s="96" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="135">
         <f>расчеты!B13</f>
-        <v>24</v>
-      </c>
-      <c r="F33" s="137">
-        <f>'Ст-сть Матер-Работ'!D47</f>
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F33" s="153">
+        <f>данные!F33</f>
+        <v>0</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="H33" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="249"/>
+      <c r="I33" s="243"/>
       <c r="J33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="180">
+      <c r="K33" s="175">
         <f>расчеты!E13</f>
-        <v>3.2644079999999999E-2</v>
-      </c>
-      <c r="L33" s="185">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+        <v>0</v>
+      </c>
+      <c r="L33" s="153">
+        <f>данные!L33</f>
+        <v>0</v>
       </c>
       <c r="M33" s="20">
         <f t="shared" si="1"/>
-        <v>2015.2998148760332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="24"/>
-      <c r="B34" s="280" t="s">
+      <c r="B34" s="291" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="281"/>
+      <c r="C34" s="292"/>
       <c r="D34" s="96" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="135">
         <f>расчеты!B15</f>
-        <v>36</v>
-      </c>
-      <c r="F34" s="137">
-        <f>'Ст-сть Матер-Работ'!D48</f>
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F34" s="153">
+        <f>данные!F34</f>
+        <v>0</v>
       </c>
       <c r="G34" s="14">
         <f t="shared" si="2"/>
-        <v>252</v>
-      </c>
-      <c r="H34" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="249"/>
+      <c r="I34" s="243"/>
       <c r="J34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="180">
+      <c r="K34" s="175">
         <f>расчеты!E15</f>
-        <v>5.8759343999999998E-2</v>
-      </c>
-      <c r="L34" s="185">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+        <v>0</v>
+      </c>
+      <c r="L34" s="153">
+        <f>данные!L34</f>
+        <v>0</v>
       </c>
       <c r="M34" s="20">
         <f t="shared" si="1"/>
-        <v>3627.5396667768596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="291" t="s">
+      <c r="B35" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="292"/>
+      <c r="C35" s="294"/>
       <c r="D35" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="135">
         <f>расчеты!B25</f>
-        <v>268</v>
-      </c>
-      <c r="F35" s="137">
-        <f>'Ст-сть Матер-Работ'!D49</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F35" s="153">
+        <f>данные!F35</f>
+        <v>0</v>
       </c>
       <c r="G35" s="14">
         <f t="shared" si="2"/>
-        <v>804</v>
-      </c>
-      <c r="H35" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="249"/>
+      <c r="I35" s="243"/>
       <c r="J35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="180">
+      <c r="K35" s="175">
         <f>расчеты!E25</f>
-        <v>0.10881360000000001</v>
-      </c>
-      <c r="L35" s="185">
-        <f>'Ст-сть Матер-Работ'!E15</f>
-        <v>61735.53719008265</v>
+        <v>0</v>
+      </c>
+      <c r="L35" s="153">
+        <f>данные!L35</f>
+        <v>0</v>
       </c>
       <c r="M35" s="20">
         <f t="shared" si="1"/>
-        <v>6717.6660495867782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="110"/>
-      <c r="B36" s="321"/>
-      <c r="C36" s="321"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="256"/>
       <c r="D36" s="13"/>
       <c r="E36" s="135"/>
-      <c r="F36" s="137"/>
+      <c r="F36" s="153">
+        <f>данные!F36</f>
+        <v>0</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="310" t="s">
+      <c r="H36" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="310"/>
+      <c r="I36" s="281"/>
       <c r="J36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="180">
+      <c r="K36" s="175">
         <f>расчеты!E27</f>
-        <v>2.9951872649999999E-2</v>
-      </c>
-      <c r="L36" s="185">
-        <f>'Ст-сть Матер-Работ'!E17</f>
-        <v>130000</v>
+        <v>0</v>
+      </c>
+      <c r="L36" s="153">
+        <f>данные!L36</f>
+        <v>0</v>
       </c>
       <c r="M36" s="20">
         <f t="shared" si="1"/>
-        <v>3893.7434444999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="321" t="s">
+      <c r="B37" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="321"/>
+      <c r="C37" s="256"/>
       <c r="D37" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="135">
         <f>расчеты!I22+расчеты!I23</f>
-        <v>32</v>
-      </c>
-      <c r="F37" s="137">
-        <f>'Ст-сть Матер-Работ'!D50</f>
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="F37" s="153">
+        <f>данные!F37</f>
+        <v>0</v>
       </c>
       <c r="G37" s="14">
         <f t="shared" ref="G37:G38" si="3">E37*F37</f>
-        <v>1600</v>
-      </c>
-      <c r="H37" s="250" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="249"/>
+      <c r="I37" s="243"/>
       <c r="J37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="180">
+      <c r="K37" s="175" t="e">
         <f>расчеты!L22</f>
-        <v>6</v>
-      </c>
-      <c r="L37" s="185">
-        <f>'Ст-сть Матер-Работ'!E20</f>
-        <v>1200</v>
-      </c>
-      <c r="M37" s="20">
-        <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="153">
+        <f>данные!L37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="327" t="s">
+      <c r="B38" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="327"/>
+      <c r="C38" s="248"/>
       <c r="D38" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="135">
         <f>расчеты!A29</f>
-        <v>14.346</v>
-      </c>
-      <c r="F38" s="136">
-        <f>'Ст-сть Матер-Работ'!D51</f>
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="153">
+        <f>данные!F38</f>
+        <v>0</v>
       </c>
       <c r="G38" s="14">
         <f t="shared" si="3"/>
-        <v>71730</v>
-      </c>
-      <c r="H38" s="311" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="282" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="311"/>
+      <c r="I38" s="282"/>
       <c r="J38" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="171">
+      <c r="K38" s="166">
         <f>E38*1.1</f>
-        <v>15.780600000000002</v>
-      </c>
-      <c r="L38" s="185">
-        <f>'Ст-сть Матер-Работ'!E18</f>
-        <v>7200</v>
+        <v>0</v>
+      </c>
+      <c r="L38" s="153">
+        <f>данные!L38</f>
+        <v>0</v>
       </c>
       <c r="M38" s="20">
         <f t="shared" si="1"/>
-        <v>113620.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="112"/>
-      <c r="B39" s="327"/>
-      <c r="C39" s="327"/>
+      <c r="B39" s="248"/>
+      <c r="C39" s="248"/>
       <c r="D39" s="27"/>
       <c r="E39" s="135"/>
       <c r="F39" s="136"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="311" t="s">
+      <c r="H39" s="282" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="311"/>
+      <c r="I39" s="282"/>
       <c r="J39" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="171">
+      <c r="K39" s="166">
         <f>расчеты!B25</f>
-        <v>268</v>
-      </c>
-      <c r="L39" s="185">
-        <f>'Ст-сть Матер-Работ'!E19</f>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="L39" s="153">
+        <f>данные!L39</f>
+        <v>0</v>
       </c>
       <c r="M39" s="20">
         <f t="shared" si="1"/>
-        <v>2948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="112"/>
-      <c r="B40" s="327"/>
-      <c r="C40" s="327"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="248"/>
       <c r="D40" s="101"/>
       <c r="E40" s="135"/>
       <c r="F40" s="136"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="243" t="s">
+      <c r="H40" s="239" t="s">
         <v>103</v>
       </c>
-      <c r="I40" s="244"/>
+      <c r="I40" s="240"/>
       <c r="J40" s="26"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="185"/>
+      <c r="K40" s="166"/>
+      <c r="L40" s="153"/>
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="134"/>
-      <c r="B41" s="295"/>
-      <c r="C41" s="296"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="298"/>
       <c r="D41" s="27"/>
       <c r="E41" s="135"/>
       <c r="F41" s="136"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="322" t="s">
+      <c r="H41" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="I41" s="322"/>
+      <c r="I41" s="257"/>
       <c r="J41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="171">
+      <c r="K41" s="166">
         <f>'Ст-сть Матер-Работ'!F25</f>
-        <v>32</v>
-      </c>
-      <c r="L41" s="185">
-        <f>'Ст-сть Матер-Работ'!E25</f>
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="L41" s="153">
+        <f>данные!L41</f>
+        <v>0</v>
       </c>
       <c r="M41" s="20">
         <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="134"/>
-      <c r="B42" s="295"/>
-      <c r="C42" s="296"/>
+      <c r="B42" s="297"/>
+      <c r="C42" s="298"/>
       <c r="D42" s="27"/>
       <c r="E42" s="135"/>
       <c r="F42" s="136"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="322" t="s">
+      <c r="H42" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="322"/>
+      <c r="I42" s="257"/>
       <c r="J42" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K42" s="171">
+      <c r="K42" s="166">
         <f>'Ст-сть Матер-Работ'!F26</f>
-        <v>2</v>
-      </c>
-      <c r="L42" s="185">
-        <f>'Ст-сть Матер-Работ'!E26</f>
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="L42" s="153">
+        <f>данные!L42</f>
+        <v>0</v>
       </c>
       <c r="M42" s="20">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="134"/>
-      <c r="B43" s="295"/>
-      <c r="C43" s="296"/>
+      <c r="B43" s="297"/>
+      <c r="C43" s="298"/>
       <c r="D43" s="27"/>
       <c r="E43" s="135"/>
       <c r="F43" s="136"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="322" t="s">
+      <c r="H43" s="257" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="322"/>
+      <c r="I43" s="257"/>
       <c r="J43" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="K43" s="171">
+      <c r="K43" s="166">
         <f>'Ст-сть Матер-Работ'!F27</f>
-        <v>2</v>
-      </c>
-      <c r="L43" s="185">
-        <f>'Ст-сть Матер-Работ'!E27</f>
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="L43" s="153">
+        <f>данные!L43</f>
+        <v>0</v>
       </c>
       <c r="M43" s="20">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="B44" s="293" t="s">
+      <c r="B44" s="295" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="294"/>
+      <c r="C44" s="296"/>
       <c r="D44" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="135">
         <f>расчеты!N25</f>
-        <v>23.91</v>
-      </c>
-      <c r="F44" s="136">
-        <f>'Ст-сть Матер-Работ'!D52</f>
-        <v>450</v>
+        <v>0</v>
+      </c>
+      <c r="F44" s="153">
+        <f>данные!F44</f>
+        <v>0</v>
       </c>
       <c r="G44" s="14">
         <f>E44*F44</f>
-        <v>10759.5</v>
-      </c>
-      <c r="H44" s="323" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="258" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="324"/>
+      <c r="I44" s="259"/>
       <c r="J44" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="171">
+      <c r="K44" s="166" t="e">
         <f>расчеты!J25</f>
-        <v>3</v>
-      </c>
-      <c r="L44" s="185">
-        <f>'Ст-сть Матер-Работ'!E21</f>
-        <v>980</v>
-      </c>
-      <c r="M44" s="20">
-        <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="153">
+        <f>данные!L44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -6122,24 +6478,24 @@
       <c r="E45" s="135"/>
       <c r="F45" s="136"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="325" t="s">
+      <c r="H45" s="260" t="s">
         <v>146</v>
       </c>
-      <c r="I45" s="326"/>
+      <c r="I45" s="261"/>
       <c r="J45" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="K45" s="171">
+      <c r="K45" s="166">
         <f>расчеты!N27</f>
-        <v>2</v>
-      </c>
-      <c r="L45" s="185">
-        <f>'Ст-сть Матер-Работ'!E22</f>
-        <v>3968</v>
+        <v>0</v>
+      </c>
+      <c r="L45" s="153">
+        <f>данные!L45</f>
+        <v>0</v>
       </c>
       <c r="M45" s="20">
         <f t="shared" si="1"/>
-        <v>7936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -6147,78 +6503,78 @@
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
-      <c r="E46" s="284" t="s">
+      <c r="E46" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="285"/>
+      <c r="F46" s="284"/>
       <c r="G46" s="31">
         <f>SUM(G21:G45)</f>
-        <v>130394.89496387501</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="285" t="s">
+      <c r="K46" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="285"/>
-      <c r="M46" s="133">
+      <c r="L46" s="284"/>
+      <c r="M46" s="133" t="e">
         <f>SUM(M21:M45)</f>
-        <v>350696.18519342213</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="283"/>
+      <c r="B47" s="302"/>
       <c r="C47" s="33"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="174"/>
-      <c r="F47" s="174"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="169"/>
       <c r="G47" s="33"/>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="181"/>
+      <c r="K47" s="176"/>
+      <c r="L47" s="176"/>
       <c r="M47" s="33"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="35"/>
-      <c r="B48" s="276" t="s">
+      <c r="B48" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="276"/>
+      <c r="C48" s="255"/>
       <c r="D48" s="86" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="138">
         <f>K50</f>
-        <v>1</v>
-      </c>
-      <c r="F48" s="159">
-        <f>'Ст-сть Матер-Работ'!D53</f>
-        <v>4500</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="153">
+        <f>данные!F48</f>
+        <v>0</v>
       </c>
       <c r="G48" s="35">
         <f>E48*F48</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="37"/>
-      <c r="K48" s="182"/>
-      <c r="L48" s="185"/>
+      <c r="K48" s="177"/>
+      <c r="L48" s="180"/>
       <c r="M48" s="35"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="35"/>
-      <c r="B49" s="276"/>
-      <c r="C49" s="276"/>
+      <c r="B49" s="255"/>
+      <c r="C49" s="255"/>
       <c r="D49" s="86"/>
       <c r="E49" s="138"/>
-      <c r="F49" s="159"/>
+      <c r="F49" s="154"/>
       <c r="G49" s="35"/>
       <c r="H49" s="38" t="s">
         <v>36</v>
@@ -6227,26 +6583,26 @@
       <c r="J49" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="183">
+      <c r="K49" s="178">
         <f>расчеты!I31</f>
         <v>1</v>
       </c>
-      <c r="L49" s="183">
-        <f>'Ст-сть Матер-Работ'!C29+'Ст-сть Матер-Работ'!E29*данные!D17</f>
-        <v>3500</v>
+      <c r="L49" s="153">
+        <f>данные!L49</f>
+        <v>0</v>
       </c>
       <c r="M49" s="35">
         <f>K49*L49</f>
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="35"/>
-      <c r="B50" s="276"/>
-      <c r="C50" s="276"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
       <c r="D50" s="86"/>
-      <c r="E50" s="188"/>
-      <c r="F50" s="160"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="155"/>
       <c r="G50" s="40"/>
       <c r="H50" s="38" t="s">
         <v>108</v>
@@ -6255,17 +6611,17 @@
       <c r="J50" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="183">
+      <c r="K50" s="178">
         <f>расчеты!E31</f>
-        <v>1</v>
-      </c>
-      <c r="L50" s="183">
-        <f>'Ст-сть Матер-Работ'!C30+'Ст-сть Матер-Работ'!E30*данные!D17</f>
-        <v>5000</v>
+        <v>0</v>
+      </c>
+      <c r="L50" s="153">
+        <f>данные!L50</f>
+        <v>0</v>
       </c>
       <c r="M50" s="35">
         <f>K50*L50</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6273,8 +6629,8 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="86"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="160"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="155"/>
       <c r="G51" s="40"/>
       <c r="H51" s="38" t="s">
         <v>109</v>
@@ -6283,13 +6639,13 @@
       <c r="J51" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K51" s="183">
+      <c r="K51" s="178">
         <f>расчеты!J31*расчеты!K31</f>
         <v>0</v>
       </c>
-      <c r="L51" s="183">
-        <f>'Ст-сть Матер-Работ'!C31</f>
-        <v>18500</v>
+      <c r="L51" s="153">
+        <f>данные!L51</f>
+        <v>0</v>
       </c>
       <c r="M51" s="35">
         <f t="shared" ref="M51:M52" si="4">K51*L51</f>
@@ -6298,11 +6654,11 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="35"/>
-      <c r="B52" s="276"/>
-      <c r="C52" s="276"/>
+      <c r="B52" s="255"/>
+      <c r="C52" s="255"/>
       <c r="D52" s="86"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="160"/>
+      <c r="E52" s="183"/>
+      <c r="F52" s="155"/>
       <c r="G52" s="40"/>
       <c r="H52" s="41" t="s">
         <v>38</v>
@@ -6313,15 +6669,15 @@
       </c>
       <c r="K52" s="138">
         <f>расчеты!L31</f>
-        <v>1</v>
-      </c>
-      <c r="L52" s="138">
-        <f>'Ст-сть Матер-Работ'!C32</f>
-        <v>23500</v>
+        <v>0</v>
+      </c>
+      <c r="L52" s="153">
+        <f>данные!L52</f>
+        <v>0</v>
       </c>
       <c r="M52" s="35">
         <f t="shared" si="4"/>
-        <v>23500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -6329,24 +6685,24 @@
       <c r="B53" s="34"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="319" t="s">
+      <c r="E53" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="320"/>
+      <c r="F53" s="254"/>
       <c r="G53" s="40">
         <f>SUM(G48:G52)</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="297" t="s">
+      <c r="K53" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="298"/>
+      <c r="L53" s="270"/>
       <c r="M53" s="40">
         <f>SUM(M48:M52)</f>
-        <v>32000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -6354,148 +6710,217 @@
       <c r="B54" s="34"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
       <c r="G54" s="33"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="181"/>
-      <c r="L54" s="181"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
       <c r="M54" s="33"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="F56" s="299" t="s">
+      <c r="F56" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="299"/>
+      <c r="G56" s="252"/>
       <c r="H56" s="43">
         <f>G19+G46+G53</f>
-        <v>166863.69496387499</v>
+        <v>0</v>
       </c>
       <c r="I56" s="87"/>
     </row>
     <row r="57" spans="1:13" ht="28.25" customHeight="1">
-      <c r="F57" s="299" t="s">
+      <c r="F57" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="299"/>
+      <c r="G57" s="252"/>
       <c r="H57" s="43">
         <f>H56*0.03</f>
-        <v>5005.91084891625</v>
+        <v>0</v>
       </c>
       <c r="I57" s="87"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1">
-      <c r="F58" s="299" t="s">
+      <c r="F58" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="299"/>
+      <c r="G58" s="252"/>
       <c r="H58" s="43">
         <f>H56*0.16</f>
-        <v>26698.191194219999</v>
+        <v>0</v>
       </c>
       <c r="I58" s="87"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="F59" s="299" t="s">
+      <c r="F59" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="299"/>
+      <c r="G59" s="252"/>
       <c r="H59" s="43">
         <f>H56+H57+H58</f>
-        <v>198567.79700701125</v>
+        <v>0</v>
       </c>
       <c r="I59" s="87"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="F60" s="299" t="s">
+      <c r="F60" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="299"/>
-      <c r="H60" s="43">
+      <c r="G60" s="252"/>
+      <c r="H60" s="43" t="e">
         <f>M19+M46</f>
-        <v>374427.65519342211</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I60" s="87"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1">
-      <c r="F61" s="317" t="s">
+      <c r="F61" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="318"/>
-      <c r="H61" s="43">
+      <c r="G61" s="268"/>
+      <c r="H61" s="43" t="e">
         <f>H60*0.035</f>
-        <v>13104.967931769776</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I61" s="87"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="F62" s="299" t="s">
+      <c r="F62" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="G62" s="299"/>
+      <c r="G62" s="252"/>
       <c r="H62" s="43">
         <f>M53</f>
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I62" s="87"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="F63" s="299" t="s">
+      <c r="F63" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="G63" s="299"/>
-      <c r="H63" s="43">
+      <c r="G63" s="252"/>
+      <c r="H63" s="43" t="e">
         <f>H60+H61+H62</f>
-        <v>419532.62312519189</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63" s="87"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="F64" s="314" t="s">
+      <c r="F64" s="264" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="314"/>
-      <c r="H64" s="44">
+      <c r="G64" s="264"/>
+      <c r="H64" s="44" t="e">
         <f>H59+H63</f>
-        <v>618100.42013220314</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I64" s="88"/>
     </row>
     <row r="65" spans="6:12" ht="16" thickBot="1">
-      <c r="F65" s="315" t="s">
+      <c r="F65" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="316"/>
+      <c r="G65" s="266"/>
       <c r="H65" s="45">
         <f>H56*0.03</f>
-        <v>5005.91084891625</v>
+        <v>0</v>
       </c>
       <c r="I65" s="89"/>
     </row>
     <row r="66" spans="6:12" ht="17" thickBot="1">
-      <c r="F66" s="312" t="s">
+      <c r="F66" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="313"/>
-      <c r="H66" s="46">
+      <c r="G66" s="263"/>
+      <c r="H66" s="46" t="e">
         <f>H64+H65</f>
-        <v>623106.33098111942</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I66" s="89"/>
-      <c r="K66" s="184"/>
-      <c r="L66" s="195"/>
+      <c r="K66" s="179"/>
+      <c r="L66" s="186"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xwCvQjhrpsTXgyAu1+wHXP10/4g77+7cZnxQ5du7rg7j0htuNMz+4BLKxQr50CYZh1AAB1tzdZYPGbnMGZnApw==" saltValue="v75YEEsPZB2Z6IoOSYGcXA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0"/>
   <mergeCells count="97">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="H35:I35"/>
@@ -6512,81 +6937,12 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
